--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -645,12 +645,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1867,26 +1867,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pelargo_x000D_
-nium _x000D_
+          <t>Pelargo
+nium 
 graveolens</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pelargo_x000D_
-nium _x000D_
+          <t>Pelargo
+nium 
 graveolens</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2042,7 +2042,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2114,7 +2114,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2330,7 +2330,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2861,7 +2861,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
     </row>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3109,7 +3109,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>80-99</t>
+          <t>(80,100]</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
     </row>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
     </row>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3408,7 +3408,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3611,7 +3611,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3678,7 +3678,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4119,7 +4119,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4129,7 +4129,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4166,7 +4166,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4332,12 +4332,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4379,12 +4379,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(80,100]</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4694,7 +4694,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4920,7 +4920,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5039,7 +5039,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5384,7 +5384,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5451,7 +5451,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -5838,7 +5838,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5942,12 +5942,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -5979,12 +5979,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -6016,12 +6016,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -6053,12 +6053,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -6090,12 +6090,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -6179,7 +6179,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6293,7 +6293,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6355,7 +6355,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -6613,7 +6613,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6722,7 +6722,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6784,7 +6784,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6794,7 +6794,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -6995,7 +6995,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -7062,7 +7062,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -7114,7 +7114,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -7124,7 +7124,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>80-99</t>
+          <t>(80,100]</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -7176,7 +7176,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -7320,7 +7320,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -7387,7 +7387,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -7578,7 +7578,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -7754,7 +7754,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -7764,7 +7764,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>80-99</t>
+          <t>(80,100]</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
     </row>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -8244,7 +8244,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -8358,7 +8358,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -8410,7 +8410,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
     </row>
@@ -8437,7 +8437,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -8526,7 +8526,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -8573,7 +8573,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -8746,7 +8746,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -8756,7 +8756,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -8803,7 +8803,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -8840,7 +8840,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
@@ -8882,7 +8882,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -8939,7 +8939,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -8971,7 +8971,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>80-99</t>
+          <t>(80,100]</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -9139,7 +9139,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -9171,7 +9171,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -9240,7 +9240,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -9272,7 +9272,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -9432,7 +9432,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -9479,7 +9479,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -9516,7 +9516,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -9531,7 +9531,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -9647,7 +9647,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -9689,7 +9689,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -9951,7 +9951,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -10040,7 +10040,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -10087,7 +10087,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -10129,7 +10129,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K182" t="inlineStr">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -10238,7 +10238,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -10275,7 +10275,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
     </row>
@@ -10354,7 +10354,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -10391,7 +10391,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -10542,7 +10542,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -10599,7 +10599,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
@@ -10668,7 +10668,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -10754,7 +10754,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -10875,7 +10875,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -10932,7 +10932,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -10974,7 +10974,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -11175,7 +11175,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -11237,7 +11237,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -11304,7 +11304,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -11433,12 +11433,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -11495,12 +11495,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -11552,12 +11552,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
@@ -11589,12 +11589,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -11626,12 +11626,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -11678,7 +11678,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -11715,7 +11715,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -11824,7 +11824,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -11871,7 +11871,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -11923,7 +11923,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -11975,7 +11975,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -12052,7 +12052,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
     </row>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -12235,7 +12235,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -12426,7 +12426,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -12493,7 +12493,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -12560,7 +12560,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -12570,7 +12570,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -12637,7 +12637,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -12694,7 +12694,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -12766,7 +12766,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -12776,7 +12776,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -12979,7 +12979,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -12994,7 +12994,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -13093,7 +13093,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -13160,7 +13160,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -13455,7 +13455,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -13507,7 +13507,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -13564,7 +13564,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -13755,7 +13755,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -13884,7 +13884,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -14028,7 +14028,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -14085,7 +14085,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -14137,7 +14137,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -14199,7 +14199,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -14209,7 +14209,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -14256,7 +14256,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -14313,7 +14313,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -14375,7 +14375,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -14432,7 +14432,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -14509,7 +14509,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -14561,7 +14561,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -14576,7 +14576,7 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -14690,7 +14690,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -14747,7 +14747,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -14757,7 +14757,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -14829,7 +14829,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -15020,7 +15020,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="N270" t="inlineStr">
@@ -15124,7 +15124,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -15181,7 +15181,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>80-99</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K272" t="inlineStr">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -15258,7 +15258,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>80-99</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -15315,7 +15315,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -15330,7 +15330,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -15459,7 +15459,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -15521,7 +15521,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -15531,7 +15531,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -15598,7 +15598,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -15702,7 +15702,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -15712,7 +15712,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
@@ -15764,7 +15764,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -15774,7 +15774,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -15826,7 +15826,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -15888,7 +15888,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -15955,7 +15955,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -15970,7 +15970,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -16084,7 +16084,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -16198,7 +16198,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -16260,7 +16260,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -16270,7 +16270,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -16322,7 +16322,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -16332,7 +16332,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -16384,7 +16384,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -16446,7 +16446,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -16456,7 +16456,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -16523,7 +16523,7 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -16575,7 +16575,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -16585,7 +16585,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -16637,7 +16637,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -16647,7 +16647,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -16694,7 +16694,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -16704,7 +16704,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K296" t="inlineStr">
@@ -16756,7 +16756,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -16771,7 +16771,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -16828,7 +16828,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -16875,7 +16875,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -16885,7 +16885,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(80,100]</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -16947,7 +16947,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -17004,7 +17004,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -17123,7 +17123,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -17190,7 +17190,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -17252,7 +17252,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
@@ -17309,7 +17309,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K306" t="inlineStr">
@@ -17356,7 +17356,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -17366,7 +17366,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -17428,7 +17428,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -17438,7 +17438,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -17475,7 +17475,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -17490,7 +17490,7 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -17532,7 +17532,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -17594,7 +17594,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -17718,7 +17718,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -17837,7 +17837,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -17904,7 +17904,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -18043,7 +18043,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -18110,7 +18110,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -18187,7 +18187,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -18244,7 +18244,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -18311,7 +18311,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -18321,7 +18321,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -18378,7 +18378,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -18440,7 +18440,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -18502,7 +18502,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -18512,7 +18512,7 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -18574,7 +18574,7 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -18698,7 +18698,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -18708,7 +18708,7 @@
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -18765,7 +18765,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -18775,7 +18775,7 @@
       </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K329" t="inlineStr">
@@ -18832,7 +18832,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -18842,7 +18842,7 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -18909,7 +18909,7 @@
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -18971,7 +18971,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -18986,7 +18986,7 @@
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -19043,7 +19043,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H333" t="inlineStr">
@@ -19053,7 +19053,7 @@
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -19100,7 +19100,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
@@ -19157,7 +19157,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
@@ -19167,7 +19167,7 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
@@ -19214,7 +19214,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -19276,7 +19276,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -19328,7 +19328,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
@@ -19338,7 +19338,7 @@
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -19390,7 +19390,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -19400,7 +19400,7 @@
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
@@ -19452,7 +19452,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -19467,7 +19467,7 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -19519,7 +19519,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -19534,7 +19534,7 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -19581,7 +19581,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H342" t="inlineStr">
@@ -19591,7 +19591,7 @@
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
@@ -19643,7 +19643,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
@@ -19653,7 +19653,7 @@
       </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -19705,7 +19705,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
@@ -19715,7 +19715,7 @@
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
@@ -19767,7 +19767,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
@@ -19777,7 +19777,7 @@
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -19834,7 +19834,7 @@
       </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -19891,7 +19891,7 @@
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -19948,7 +19948,7 @@
       </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -20010,7 +20010,7 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -20072,7 +20072,7 @@
       </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -20129,7 +20129,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
@@ -20139,7 +20139,7 @@
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -20196,7 +20196,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
@@ -20206,7 +20206,7 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -20268,7 +20268,7 @@
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -20330,7 +20330,7 @@
       </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
@@ -20382,7 +20382,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -20397,7 +20397,7 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -20454,7 +20454,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
@@ -20464,7 +20464,7 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
@@ -20526,7 +20526,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
@@ -20598,7 +20598,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
@@ -20608,7 +20608,7 @@
       </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
@@ -20670,7 +20670,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H359" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -20747,7 +20747,7 @@
       </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -20794,7 +20794,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
@@ -20804,7 +20804,7 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -20856,7 +20856,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H363" t="inlineStr">
@@ -20980,7 +20980,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H364" t="inlineStr">
@@ -21037,7 +21037,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
@@ -21047,7 +21047,7 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -21099,7 +21099,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
@@ -21109,7 +21109,7 @@
       </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -21176,7 +21176,7 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -21248,7 +21248,7 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
@@ -21305,7 +21305,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -21320,7 +21320,7 @@
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
@@ -21382,7 +21382,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
@@ -21464,7 +21464,7 @@
       </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
@@ -21521,7 +21521,7 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
@@ -21568,7 +21568,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
@@ -21578,7 +21578,7 @@
       </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -21625,7 +21625,7 @@
       </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K374" t="inlineStr">
@@ -21662,7 +21662,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
@@ -21677,7 +21677,7 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K375" t="inlineStr">
@@ -21729,7 +21729,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
@@ -21744,7 +21744,7 @@
       </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K376" t="inlineStr">
@@ -21796,7 +21796,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
@@ -21811,7 +21811,7 @@
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
@@ -21863,7 +21863,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
@@ -21878,7 +21878,7 @@
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
@@ -21940,7 +21940,7 @@
       </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K379" t="inlineStr">
@@ -21997,7 +21997,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
@@ -22007,7 +22007,7 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -22059,7 +22059,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
@@ -22069,7 +22069,7 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K381" t="inlineStr">
@@ -22116,7 +22116,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K382" t="inlineStr">
@@ -22178,7 +22178,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K383" t="inlineStr">
@@ -22240,7 +22240,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -22255,7 +22255,7 @@
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
@@ -22302,7 +22302,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -22317,7 +22317,7 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -22364,7 +22364,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
@@ -22374,7 +22374,7 @@
       </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -22416,7 +22416,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
@@ -22426,7 +22426,7 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -22468,7 +22468,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
@@ -22478,7 +22478,7 @@
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -22530,7 +22530,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
@@ -22540,7 +22540,7 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
@@ -22597,7 +22597,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
@@ -22607,7 +22607,7 @@
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
@@ -22669,7 +22669,7 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
@@ -22731,7 +22731,7 @@
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -22768,7 +22768,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
@@ -22778,7 +22778,7 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -22820,7 +22820,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -22830,7 +22830,7 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -22882,7 +22882,7 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -22929,7 +22929,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -22939,7 +22939,7 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -22981,7 +22981,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
@@ -22991,7 +22991,7 @@
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -23033,7 +23033,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
@@ -23043,7 +23043,7 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -23095,7 +23095,7 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
@@ -23142,7 +23142,7 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -23204,7 +23204,7 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
@@ -23276,7 +23276,7 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -23333,7 +23333,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
@@ -23343,7 +23343,7 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -23467,7 +23467,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -23477,7 +23477,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -23534,7 +23534,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -23544,7 +23544,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -23601,7 +23601,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -23611,7 +23611,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -23668,7 +23668,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -23678,7 +23678,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -23745,7 +23745,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
@@ -23802,7 +23802,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -23812,7 +23812,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -23869,7 +23869,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -23879,7 +23879,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -23946,7 +23946,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K412" t="inlineStr">
@@ -24003,7 +24003,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -24013,7 +24013,7 @@
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K413" t="inlineStr">
@@ -24065,7 +24065,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -24075,7 +24075,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K414" t="inlineStr">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -24189,7 +24189,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
@@ -24199,7 +24199,7 @@
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -24256,7 +24256,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -24271,7 +24271,7 @@
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -24333,7 +24333,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
@@ -24348,7 +24348,7 @@
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -24405,7 +24405,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
@@ -24415,7 +24415,7 @@
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -24472,7 +24472,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
@@ -24482,7 +24482,7 @@
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
@@ -24539,7 +24539,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -24549,7 +24549,7 @@
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K421" t="inlineStr">
@@ -24596,7 +24596,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -24606,7 +24606,7 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -24648,7 +24648,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -24658,7 +24658,7 @@
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -24705,7 +24705,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
@@ -24715,7 +24715,7 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -24762,7 +24762,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
@@ -24772,7 +24772,7 @@
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -24824,7 +24824,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
@@ -24834,7 +24834,7 @@
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -24871,7 +24871,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
@@ -24881,7 +24881,7 @@
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -24943,7 +24943,7 @@
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -24995,7 +24995,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
@@ -25005,7 +25005,7 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -25057,7 +25057,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -25067,7 +25067,7 @@
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -25129,7 +25129,7 @@
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -25186,7 +25186,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -25196,7 +25196,7 @@
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K432" t="inlineStr">
@@ -25253,7 +25253,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -25263,7 +25263,7 @@
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K433" t="inlineStr">
@@ -25320,7 +25320,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
@@ -25330,7 +25330,7 @@
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -25387,7 +25387,7 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -25439,7 +25439,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -25449,7 +25449,7 @@
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -25496,7 +25496,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -25506,7 +25506,7 @@
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -25553,7 +25553,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -25610,7 +25610,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -25620,7 +25620,7 @@
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -25667,7 +25667,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -25677,7 +25677,7 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
@@ -25719,7 +25719,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
@@ -25729,7 +25729,7 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
@@ -25766,7 +25766,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="I442" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -25828,7 +25828,7 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K443" t="inlineStr">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K444" t="inlineStr">
@@ -25912,7 +25912,7 @@
       </c>
       <c r="I445" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K445" t="inlineStr">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -26021,7 +26021,7 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -26083,7 +26083,7 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
@@ -26135,7 +26135,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
@@ -26145,7 +26145,7 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -26197,7 +26197,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -26207,7 +26207,7 @@
       </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -26254,7 +26254,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -26264,7 +26264,7 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -26306,7 +26306,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
@@ -26316,7 +26316,7 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -26358,7 +26358,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
@@ -26368,7 +26368,7 @@
       </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K453" t="inlineStr">
@@ -26420,7 +26420,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
@@ -26492,7 +26492,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
@@ -26502,7 +26502,7 @@
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -26574,7 +26574,7 @@
       </c>
       <c r="I456" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
@@ -26636,7 +26636,7 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K457" t="inlineStr">
@@ -26693,7 +26693,7 @@
       </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K458" t="inlineStr">
@@ -26740,7 +26740,7 @@
       </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -26787,7 +26787,7 @@
       </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -26834,7 +26834,7 @@
       </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="I462" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K462" t="inlineStr">
@@ -26928,7 +26928,7 @@
       </c>
       <c r="I463" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K463" t="inlineStr">
@@ -26975,7 +26975,7 @@
       </c>
       <c r="I464" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K464" t="inlineStr">
@@ -27022,7 +27022,7 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -27069,7 +27069,7 @@
       </c>
       <c r="I466" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K466" t="inlineStr">
@@ -27116,7 +27116,7 @@
       </c>
       <c r="I467" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -27168,7 +27168,7 @@
       </c>
       <c r="I468" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K468" t="inlineStr">
@@ -27225,7 +27225,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
@@ -27240,7 +27240,7 @@
       </c>
       <c r="I469" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K469" t="inlineStr">
@@ -27297,7 +27297,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
@@ -27312,7 +27312,7 @@
       </c>
       <c r="I470" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K470" t="inlineStr">
@@ -27369,7 +27369,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
@@ -27384,7 +27384,7 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K471" t="inlineStr">
@@ -27441,7 +27441,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
@@ -27456,7 +27456,7 @@
       </c>
       <c r="I472" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K472" t="inlineStr">
@@ -27513,7 +27513,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
@@ -27528,7 +27528,7 @@
       </c>
       <c r="I473" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K473" t="inlineStr">
@@ -27585,7 +27585,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
@@ -27600,7 +27600,7 @@
       </c>
       <c r="I474" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K474" t="inlineStr">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
@@ -27672,7 +27672,7 @@
       </c>
       <c r="I475" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K475" t="inlineStr">
@@ -27729,7 +27729,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
@@ -27744,7 +27744,7 @@
       </c>
       <c r="I476" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K476" t="inlineStr">
@@ -27796,7 +27796,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
@@ -27806,7 +27806,7 @@
       </c>
       <c r="I477" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K477" t="inlineStr">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
@@ -27873,7 +27873,7 @@
       </c>
       <c r="I478" t="inlineStr">
         <is>
-          <t>80-99</t>
+          <t>(80,100]</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
@@ -27940,7 +27940,7 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="I480" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
@@ -28074,7 +28074,7 @@
       </c>
       <c r="I481" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
@@ -28136,7 +28136,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -28146,7 +28146,7 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -28198,7 +28198,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -28208,7 +28208,7 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -28260,7 +28260,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -28270,7 +28270,7 @@
       </c>
       <c r="I484" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K484" t="inlineStr">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -28327,7 +28327,7 @@
       </c>
       <c r="I485" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -28374,7 +28374,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -28384,7 +28384,7 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
@@ -28441,7 +28441,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
@@ -28451,7 +28451,7 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
@@ -28508,7 +28508,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
@@ -28518,7 +28518,7 @@
       </c>
       <c r="I488" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
@@ -28575,7 +28575,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
@@ -28585,7 +28585,7 @@
       </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J489" t="inlineStr">
@@ -28642,7 +28642,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
@@ -28652,7 +28652,7 @@
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -28704,7 +28704,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -28714,7 +28714,7 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K491" t="inlineStr">
@@ -28771,7 +28771,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
@@ -28781,7 +28781,7 @@
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -28833,7 +28833,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
@@ -28843,7 +28843,7 @@
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K493" t="inlineStr">
@@ -28890,7 +28890,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
@@ -28905,7 +28905,7 @@
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K494" t="inlineStr">
@@ -28952,7 +28952,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
@@ -28967,7 +28967,7 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K495" t="inlineStr">
@@ -29014,7 +29014,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
@@ -29024,7 +29024,7 @@
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -29076,7 +29076,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
@@ -29086,7 +29086,7 @@
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -29133,7 +29133,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
@@ -29148,7 +29148,7 @@
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -29195,7 +29195,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
@@ -29210,7 +29210,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -29252,7 +29252,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
@@ -29262,7 +29262,7 @@
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K500" t="inlineStr">
@@ -29309,7 +29309,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
@@ -29319,7 +29319,7 @@
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="L501" t="inlineStr">
@@ -29356,7 +29356,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
@@ -29366,7 +29366,7 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -29403,7 +29403,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -29413,7 +29413,7 @@
       </c>
       <c r="I503" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -29450,7 +29450,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G504" t="inlineStr">
@@ -29465,7 +29465,7 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K504" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G505" t="inlineStr">
@@ -29532,7 +29532,7 @@
       </c>
       <c r="I505" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K505" t="inlineStr">
@@ -29584,7 +29584,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G506" t="inlineStr">
@@ -29599,7 +29599,7 @@
       </c>
       <c r="I506" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K506" t="inlineStr">
@@ -29656,7 +29656,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G507" t="inlineStr">
@@ -29671,7 +29671,7 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
@@ -29728,7 +29728,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -29738,7 +29738,7 @@
       </c>
       <c r="I508" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K508" t="inlineStr">
@@ -29790,7 +29790,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G509" t="inlineStr">
@@ -29805,7 +29805,7 @@
       </c>
       <c r="I509" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
@@ -29862,7 +29862,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G510" t="inlineStr">
@@ -29877,7 +29877,7 @@
       </c>
       <c r="I510" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
@@ -29934,7 +29934,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -29944,7 +29944,7 @@
       </c>
       <c r="I511" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
@@ -30006,7 +30006,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G512" t="inlineStr">
@@ -30021,7 +30021,7 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K512" t="inlineStr">
@@ -30073,7 +30073,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G513" t="inlineStr">
@@ -30088,7 +30088,7 @@
       </c>
       <c r="I513" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K513" t="inlineStr">
@@ -30140,7 +30140,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G514" t="inlineStr">
@@ -30155,7 +30155,7 @@
       </c>
       <c r="I514" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -30207,7 +30207,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G515" t="inlineStr">
@@ -30222,7 +30222,7 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K515" t="inlineStr">
@@ -30269,7 +30269,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H516" t="inlineStr">
@@ -30279,7 +30279,7 @@
       </c>
       <c r="I516" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
@@ -30326,7 +30326,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
@@ -30336,7 +30336,7 @@
       </c>
       <c r="I517" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J517" t="inlineStr">
@@ -30383,7 +30383,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -30393,7 +30393,7 @@
       </c>
       <c r="I518" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
@@ -30450,7 +30450,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
@@ -30460,7 +30460,7 @@
       </c>
       <c r="I519" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
@@ -30517,7 +30517,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
@@ -30527,7 +30527,7 @@
       </c>
       <c r="I520" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
@@ -30584,7 +30584,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H521" t="inlineStr">
@@ -30594,7 +30594,7 @@
       </c>
       <c r="I521" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
@@ -30651,7 +30651,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
@@ -30661,7 +30661,7 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
@@ -30723,7 +30723,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
@@ -30733,7 +30733,7 @@
       </c>
       <c r="I523" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
@@ -30795,7 +30795,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H524" t="inlineStr">
@@ -30805,7 +30805,7 @@
       </c>
       <c r="I524" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H525" t="inlineStr">
@@ -30877,7 +30877,7 @@
       </c>
       <c r="I525" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J525" t="inlineStr">
@@ -30939,7 +30939,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
@@ -30949,7 +30949,7 @@
       </c>
       <c r="I526" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K526" t="inlineStr">
@@ -31006,7 +31006,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H527" t="inlineStr">
@@ -31016,7 +31016,7 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K527" t="inlineStr">
@@ -31073,7 +31073,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
@@ -31083,7 +31083,7 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K528" t="inlineStr">
@@ -31140,7 +31140,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -31150,7 +31150,7 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K529" t="inlineStr">
@@ -31207,7 +31207,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
@@ -31217,7 +31217,7 @@
       </c>
       <c r="I530" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K530" t="inlineStr">
@@ -31274,7 +31274,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -31284,7 +31284,7 @@
       </c>
       <c r="I531" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K531" t="inlineStr">
@@ -31341,7 +31341,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -31351,7 +31351,7 @@
       </c>
       <c r="I532" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K532" t="inlineStr">
@@ -31408,7 +31408,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
@@ -31418,7 +31418,7 @@
       </c>
       <c r="I533" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K533" t="inlineStr">
@@ -31475,7 +31475,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -31485,7 +31485,7 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K534" t="inlineStr">
@@ -31542,7 +31542,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -31552,7 +31552,7 @@
       </c>
       <c r="I535" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K535" t="inlineStr">
@@ -31614,7 +31614,7 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
@@ -31681,7 +31681,7 @@
       </c>
       <c r="I537" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
@@ -31743,7 +31743,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -31753,7 +31753,7 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
@@ -31815,7 +31815,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G539" t="inlineStr">
@@ -31830,7 +31830,7 @@
       </c>
       <c r="I539" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K539" t="inlineStr">
@@ -31887,7 +31887,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G540" t="inlineStr">
@@ -31902,7 +31902,7 @@
       </c>
       <c r="I540" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K540" t="inlineStr">
@@ -31959,7 +31959,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G541" t="inlineStr">
@@ -31974,7 +31974,7 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K541" t="inlineStr">
@@ -32031,7 +32031,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
@@ -32041,7 +32041,7 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
@@ -32098,7 +32098,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H543" t="inlineStr">
@@ -32108,7 +32108,7 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
@@ -32160,7 +32160,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H544" t="inlineStr">
@@ -32170,7 +32170,7 @@
       </c>
       <c r="I544" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K544" t="inlineStr">
@@ -32222,7 +32222,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H545" t="inlineStr">
@@ -32232,7 +32232,7 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K545" t="inlineStr">
@@ -32289,7 +32289,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
@@ -32304,7 +32304,7 @@
       </c>
       <c r="I546" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K546" t="inlineStr">
@@ -32361,7 +32361,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
@@ -32371,7 +32371,7 @@
       </c>
       <c r="I547" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K547" t="inlineStr">
@@ -32428,7 +32428,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -32438,7 +32438,7 @@
       </c>
       <c r="I548" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K548" t="inlineStr">
@@ -32495,7 +32495,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
@@ -32505,7 +32505,7 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K549" t="inlineStr">
@@ -32557,7 +32557,7 @@
       </c>
       <c r="I550" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K550" t="inlineStr">
@@ -32604,7 +32604,7 @@
       </c>
       <c r="I551" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K551" t="inlineStr">
@@ -32641,7 +32641,7 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(80,100]</t>
         </is>
       </c>
       <c r="K552" t="inlineStr">
@@ -32693,7 +32693,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H553" t="inlineStr">
@@ -32703,7 +32703,7 @@
       </c>
       <c r="I553" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K553" t="inlineStr">
@@ -32750,7 +32750,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
@@ -32760,7 +32760,7 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K554" t="inlineStr">
@@ -32797,7 +32797,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H555" t="inlineStr">
@@ -32807,7 +32807,7 @@
       </c>
       <c r="I555" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K555" t="inlineStr">
@@ -32849,7 +32849,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H556" t="inlineStr">
@@ -32859,7 +32859,7 @@
       </c>
       <c r="I556" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -32901,7 +32901,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
@@ -32911,7 +32911,7 @@
       </c>
       <c r="I557" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="K557" t="inlineStr">
@@ -32953,7 +32953,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
@@ -32963,7 +32963,7 @@
       </c>
       <c r="I558" t="inlineStr">
         <is>
-          <t>60-79</t>
+          <t>(60,80]</t>
         </is>
       </c>
       <c r="K558" t="inlineStr">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="G559" t="inlineStr">
@@ -33010,7 +33010,7 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K559" t="inlineStr">
@@ -33057,7 +33057,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G560" t="inlineStr">
@@ -33072,7 +33072,7 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K560" t="inlineStr">
@@ -33114,7 +33114,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
@@ -33124,7 +33124,7 @@
       </c>
       <c r="I561" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
@@ -33176,7 +33176,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
@@ -33186,7 +33186,7 @@
       </c>
       <c r="I562" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
@@ -33238,7 +33238,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
@@ -33248,7 +33248,7 @@
       </c>
       <c r="I563" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
@@ -33300,7 +33300,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H564" t="inlineStr">
@@ -33310,7 +33310,7 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
@@ -33362,7 +33362,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H565" t="inlineStr">
@@ -33372,7 +33372,7 @@
       </c>
       <c r="I565" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J565" t="inlineStr">
@@ -33424,7 +33424,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H566" t="inlineStr">
@@ -33434,7 +33434,7 @@
       </c>
       <c r="I566" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
@@ -33486,7 +33486,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H567" t="inlineStr">
@@ -33496,7 +33496,7 @@
       </c>
       <c r="I567" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
@@ -33548,7 +33548,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H568" t="inlineStr">
@@ -33558,7 +33558,7 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
@@ -33610,7 +33610,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H569" t="inlineStr">
@@ -33620,7 +33620,7 @@
       </c>
       <c r="I569" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K569" t="inlineStr">
@@ -33662,7 +33662,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H570" t="inlineStr">
@@ -33672,7 +33672,7 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
@@ -33709,7 +33709,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G571" t="inlineStr">
@@ -33724,7 +33724,7 @@
       </c>
       <c r="I571" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K571" t="inlineStr">
@@ -33756,7 +33756,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H572" t="inlineStr">
@@ -33766,7 +33766,7 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K572" t="inlineStr">
@@ -33818,7 +33818,7 @@
       </c>
       <c r="I573" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K573" t="inlineStr">
@@ -33855,7 +33855,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H574" t="inlineStr">
@@ -33865,7 +33865,7 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K574" t="inlineStr">
@@ -33907,7 +33907,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G575" t="inlineStr">
@@ -33922,7 +33922,7 @@
       </c>
       <c r="I575" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K575" t="inlineStr">
@@ -33954,7 +33954,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H576" t="inlineStr">
@@ -33986,7 +33986,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H577" t="inlineStr">
@@ -33996,7 +33996,7 @@
       </c>
       <c r="I577" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K577" t="inlineStr">
@@ -34028,7 +34028,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H578" t="inlineStr">
@@ -34038,7 +34038,7 @@
       </c>
       <c r="I578" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K578" t="inlineStr">
@@ -34075,7 +34075,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H579" t="inlineStr">
@@ -34085,7 +34085,7 @@
       </c>
       <c r="I579" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K579" t="inlineStr">
@@ -34122,7 +34122,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H580" t="inlineStr">
@@ -34132,7 +34132,7 @@
       </c>
       <c r="I580" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K580" t="inlineStr">
@@ -34164,7 +34164,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G581" t="inlineStr">
@@ -34174,7 +34174,7 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K581" t="inlineStr">
@@ -34221,7 +34221,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="G582" t="inlineStr">
@@ -34231,7 +34231,7 @@
       </c>
       <c r="I582" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K582" t="inlineStr">
@@ -34278,7 +34278,7 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K583" t="inlineStr">
@@ -34310,7 +34310,7 @@
       </c>
       <c r="I584" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K584" t="inlineStr">
@@ -34337,7 +34337,7 @@
       </c>
       <c r="I585" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="J585" t="inlineStr">
@@ -34384,7 +34384,7 @@
       </c>
       <c r="I586" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="K586" t="inlineStr">
@@ -34411,7 +34411,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>Medium (21-50)</t>
+          <t>Medium ((20,50])</t>
         </is>
       </c>
       <c r="H587" t="inlineStr">
@@ -34458,7 +34458,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H588" t="inlineStr">
@@ -34468,7 +34468,7 @@
       </c>
       <c r="I588" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -34505,7 +34505,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H589" t="inlineStr">
@@ -34515,7 +34515,7 @@
       </c>
       <c r="I589" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -34552,7 +34552,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>High (≥51)</t>
+          <t>High ((50,Inf))</t>
         </is>
       </c>
       <c r="H590" t="inlineStr">
@@ -34562,7 +34562,7 @@
       </c>
       <c r="I590" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -34599,7 +34599,7 @@
       </c>
       <c r="I591" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="M591" t="inlineStr">
@@ -34626,7 +34626,7 @@
       </c>
       <c r="I592" t="inlineStr">
         <is>
-          <t>≥100</t>
+          <t>(100,Inf)</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
@@ -34658,7 +34658,7 @@
       </c>
       <c r="I593" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -34685,7 +34685,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>Low (≤20)</t>
+          <t>Low ((-Inf,20])</t>
         </is>
       </c>
       <c r="G594" t="inlineStr">
@@ -34700,7 +34700,7 @@
       </c>
       <c r="I594" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="J594" t="inlineStr">
@@ -34737,7 +34737,7 @@
       </c>
       <c r="I595" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K595" t="inlineStr">
@@ -34784,7 +34784,7 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>40-59</t>
+          <t>(40,60]</t>
         </is>
       </c>
       <c r="K596" t="inlineStr">
@@ -34816,7 +34816,7 @@
       </c>
       <c r="I597" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K597" t="inlineStr">
@@ -34848,7 +34848,7 @@
       </c>
       <c r="I598" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K598" t="inlineStr">
@@ -34880,7 +34880,7 @@
       </c>
       <c r="I599" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K599" t="inlineStr">
@@ -34912,7 +34912,7 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>20-39</t>
+          <t>(20,40]</t>
         </is>
       </c>
       <c r="K600" t="inlineStr">
@@ -34944,7 +34944,7 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>0-19</t>
+          <t>(0,20]</t>
         </is>
       </c>
       <c r="M601" t="inlineStr">
